--- a/xlsx/形而上_intext.xlsx
+++ b/xlsx/形而上_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="945">
   <si>
     <t>形而上</t>
   </si>
@@ -29,7 +29,7 @@
     <t>哲学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_形而上</t>
+    <t>政策_政策_政治学_形而上</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E9%AD%AF%E4%B8%96%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊本·魯世德</t>
+    <t>伊本·鲁世德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美學家列表</t>
+    <t>美学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E8%AB%96%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>知識論者列表</t>
+    <t>知识论者列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_ethicists</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E5%AD%B8%E5%AD%B8%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>形而上學學者列表</t>
+    <t>形而上学学者列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_social_and_political_philosophers</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>分析哲學</t>
+    <t>分析哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>亞里斯多德主義</t>
+    <t>亚里斯多德主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Buddhist_philosophy</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歐陸哲學</t>
+    <t>欧陆哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E4%B8%BB%E4%B9%89</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>猶太教哲學</t>
+    <t>犹太教哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E7%94%A8%E4%B8%BB%E4%B9%89</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>東方哲學</t>
+    <t>东方哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%93%B2%E5%AD%A6</t>
@@ -203,13 +203,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀哲學</t>
+    <t>中世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>近代哲學</t>
+    <t>近代哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E4%BB%A3%E5%93%B2%E5%AD%A6</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E8%A7%A3%E6%B1%BA%E7%9A%84%E5%93%B2%E5%AD%B8%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>未解決的哲學問題</t>
+    <t>未解决的哲学问题</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_important_publications_in_philosophy</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>哲學家列表</t>
+    <t>哲学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%AD%A6%E9%97%AE%E7%9A%84%E4%BA%BA</t>
@@ -335,55 +335,52 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%84%E7%96%87</t>
   </si>
   <si>
-    <t>範疇</t>
+    <t>范畴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
-    <t>空間</t>
+    <t>空间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>時間</t>
+    <t>时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E6%9E%9C%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>因果關係</t>
+    <t>因果关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%AB%94%E8%AB%96</t>
   </si>
   <si>
-    <t>本體論</t>
+    <t>本体论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E8%AB%96</t>
   </si>
   <si>
-    <t>宇宙論</t>
+    <t>宇宙论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%AA%9E</t>
   </si>
   <si>
-    <t>希臘語</t>
+    <t>希腊语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF</t>
   </si>
   <si>
-    <t>邏輯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>物理學</t>
+    <t>物理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%95%E4%B8%8A%E5%93%B2%E6%AC%A1%E9%83%8E</t>
@@ -395,13 +392,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B2%BB%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>明治時代</t>
+    <t>明治时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E7%B6%93</t>
   </si>
   <si>
-    <t>易經</t>
+    <t>易经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E7%BF%BC</t>
@@ -413,25 +410,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E8%AB%96</t>
   </si>
   <si>
-    <t>原子論</t>
+    <t>原子论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%9B%E5%8D%A1%E5%85%92</t>
   </si>
   <si>
-    <t>笛卡兒</t>
+    <t>笛卡儿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然科學</t>
+    <t>自然科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A5%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然神學</t>
+    <t>自然神学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E</t>
@@ -467,7 +464,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E4%B8%A6%E5%AD%98%E7%90%86%E5%BF%B5</t>
   </si>
   <si>
-    <t>二元並存理念</t>
+    <t>二元并存理念</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%97%A0%E4%B8%BB%E4%B9%89</t>
@@ -479,31 +476,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>實在論</t>
+    <t>实在论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%B0%8D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>相對主義</t>
+    <t>相对主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>科學實在論</t>
+    <t>科学实在论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E6%88%91%E8%AB%96</t>
   </si>
   <si>
-    <t>唯我論</t>
+    <t>唯我论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>唯心主義</t>
+    <t>唯心主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
@@ -515,7 +512,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF%E5%AF%A6%E8%AD%89%E8%AB%96</t>
   </si>
   <si>
-    <t>邏輯實證論</t>
+    <t>逻辑实证论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E7%A7%91%E5%AD%A6</t>
@@ -527,31 +524,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然哲學</t>
+    <t>自然哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
-    <t>科學方法</t>
+    <t>科学方法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>實驗</t>
+    <t>实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>經驗</t>
+    <t>经验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學哲學</t>
+    <t>科学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%B4%A8%E4%B8%BB%E4%B9%89</t>
@@ -563,13 +560,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>存在主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%9A%84%E6%84%8F%E7%BE%A9</t>
   </si>
   <si>
-    <t>生命的意義</t>
+    <t>生命的意义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97</t>
@@ -581,13 +575,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>行動理論</t>
+    <t>行动理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E7%84%A1</t>
   </si>
   <si>
-    <t>虛無</t>
+    <t>虚无</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E4%B8%BB%E4%B9%89</t>
@@ -623,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>宗教哲學</t>
+    <t>宗教哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>精神哲學</t>
+    <t>精神哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%8E%9F</t>
@@ -647,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%83%BD%E4%B8%8A%E5%B8%9D%E6%82%96%E8%AB%96</t>
   </si>
   <si>
-    <t>全能上帝悖論</t>
+    <t>全能上帝悖论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>抽象知識</t>
+    <t>抽象知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%BB%E5%9E%8B%E8%AE%BA</t>
@@ -803,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%AB%BE%E6%80%9D%C2%B7%E6%87%B7%E7%89%B9%E9%BB%91%E5%BE%B7</t>
   </si>
   <si>
-    <t>阿爾弗雷德·諾思·懷特黑德</t>
+    <t>阿尔弗雷德·诺思·怀特黑德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%B7%E7%BB%B4%E5%B8%8C%C2%B7%E7%BB%B4%E7%89%B9%E6%A0%B9%E6%96%AF%E5%9D%A6</t>
@@ -929,15 +923,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>形而上學家列表</t>
+    <t>形而上学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8A%A8%E7%90%86%E8%AE%BA</t>
   </si>
   <si>
-    <t>行动理论</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Anti-realism</t>
   </si>
   <si>
@@ -965,9 +956,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>唯心主义</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Libertarianism_(metaphysics)</t>
   </si>
   <si>
@@ -1001,13 +989,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E5%AF%B9%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
-    <t>相对主义</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>主觀主義</t>
+    <t>主观主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Substance_theory</t>
@@ -1067,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>實體</t>
+    <t>实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E8%B4%A8</t>
@@ -1091,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E4%B8%80%E6%80%A7%E8%88%87%E8%AE%8A%E5%8C%96</t>
   </si>
   <si>
-    <t>同一性與變化</t>
+    <t>同一性与变化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF</t>
@@ -1169,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E9%AB%94</t>
   </si>
   <si>
-    <t>客體</t>
+    <t>客体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E5%BC%8F</t>
@@ -1217,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6</t>
   </si>
   <si>
-    <t>現實</t>
+    <t>现实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%B5%E9%AD%82</t>
@@ -1247,9 +1232,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4</t>
   </si>
   <si>
-    <t>时间</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%90%86</t>
   </si>
   <si>
@@ -1271,7 +1253,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E8%A7%80%E6%B8%AC%E6%80%A7</t>
   </si>
   <si>
-    <t>不可觀測性</t>
+    <t>不可观测性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%80%BC_(%E4%BC%A6%E7%90%86%E5%AD%A6)</t>
@@ -1283,7 +1265,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E5%80%BC%E8%AB%96</t>
   </si>
   <si>
-    <t>價值論</t>
+    <t>价值论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E5%AD%A6</t>
@@ -1295,13 +1277,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E5%AD%B8</t>
   </si>
   <si>
-    <t>知識學</t>
+    <t>知识学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E8%A8%AD</t>
   </si>
   <si>
-    <t>後設</t>
+    <t>后设</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E4%BD%93%E8%AE%BA_(%E5%93%B2%E5%AD%A6)</t>
@@ -1313,15 +1295,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E7%A5%9E%E5%93%B2%E5%AD%A6</t>
   </si>
   <si>
-    <t>精神哲学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E5%93%B2%E5%AD%A6</t>
   </si>
   <si>
-    <t>科学哲学</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_psychology</t>
   </si>
   <si>
@@ -1355,13 +1331,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90-%E7%B6%9C%E5%90%88%E5%8D%80%E5%88%A5</t>
   </si>
   <si>
-    <t>分析-綜合區別</t>
+    <t>分析-综合区别</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%97</t>
   </si>
   <si>
-    <t>先驗</t>
+    <t>先验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%85%AC%E5%BA%A6%E6%80%A7</t>
@@ -1391,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%AF%A6</t>
   </si>
   <si>
-    <t>事實</t>
+    <t>事实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%AF%81%E4%BC%AA%E6%80%A7</t>
@@ -1403,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E5%80%91%E7%8F%BE%E5%9C%A8%E4%B8%8D%E7%9F%A5%E9%81%93%EF%BC%8C%E5%B0%87%E4%BE%86%E4%B9%9F%E4%B8%8D%E7%9F%A5%E9%81%93</t>
   </si>
   <si>
-    <t>我們現在不知道，將來也不知道</t>
+    <t>我们现在不知道，将来也不知道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%92%E7%BA%B3%E6%8E%A8%E7%90%86</t>
@@ -1439,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%82%E5%AF%9F</t>
@@ -1469,9 +1445,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
-    <t>科学方法</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
@@ -1487,13 +1460,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%B8%AC%E8%A9%A6%E6%80%A7</t>
   </si>
   <si>
-    <t>可測試性</t>
+    <t>可测试性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>選擇理論</t>
+    <t>选择理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Confirmation_holism</t>
@@ -1505,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%90%86%E8%9E%8D%E8%B2%AB%E8%AB%96</t>
   </si>
   <si>
-    <t>真理融貫論</t>
+    <t>真理融贯论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Contextualism</t>
@@ -1541,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%AC%AC%E8%AB%96</t>
   </si>
   <si>
-    <t>可謬論</t>
+    <t>可谬论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Foundationalism</t>
@@ -1565,7 +1538,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>工具主義</t>
+    <t>工具主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E4%B8%BB%E4%B9%89</t>
@@ -1607,13 +1580,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9D%87%E8%AE%8A%E8%AB%96</t>
   </si>
   <si>
-    <t>均變論</t>
+    <t>均变论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E5%8A%9B%E8%AB%96</t>
   </si>
   <si>
-    <t>活力論</t>
+    <t>活力论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_and_philosophy_of_science</t>
@@ -1649,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學哲學</t>
+    <t>生物学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E6%80%9D%E6%83%B3%E5%8F%B2</t>
@@ -1661,7 +1634,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境哲學</t>
+    <t>环境哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neurophilosophy</t>
@@ -1679,7 +1652,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B7%A5%E6%99%BA%E8%83%BD%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>人工智能哲學</t>
+    <t>人工智能哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_computer_science</t>
@@ -1745,7 +1718,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E4%BA%9E%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯多亞學派</t>
+    <t>斯多亚学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%B4%E5%85%8B%E5%A4%9A%E7%9A%84%E4%BC%91</t>
@@ -1811,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E7%B6%AD%E8%B5%AB%E7%B6%AD%E7%88%BE</t>
   </si>
   <si>
-    <t>威廉·維赫維爾</t>
+    <t>威廉·维赫维尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E7%89%B9%C2%B7%E5%AD%94%E5%BE%B7</t>
@@ -1859,7 +1832,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%AF%E9%81%93%E5%A4%AB%C2%B7%E6%96%AF%E5%9D%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>魯道夫·斯坦納</t>
+    <t>鲁道夫·斯坦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E7%9A%AE%E5%B0%94%E9%80%8A</t>
@@ -1907,7 +1880,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%9C%96%C2%B7%E7%B4%90%E6%8B%89%E7%89%B9</t>
   </si>
   <si>
-    <t>奧圖·紐拉特</t>
+    <t>奥图·纽拉特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E5%B0%94%E6%A0%B9%C2%B7%E5%93%88%E8%B4%9D%E9%A9%AC%E6%96%AF</t>
@@ -1925,7 +1898,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E4%B8%B9%E5%B0%BC%E7%89%B9</t>
   </si>
   <si>
-    <t>丹尼爾·丹尼特</t>
+    <t>丹尼尔·丹尼特</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_culture</t>
@@ -1967,7 +1940,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育哲學</t>
+    <t>教育哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_healthcare</t>
@@ -1985,7 +1958,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學人類學</t>
+    <t>哲学人类学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Theories_of_humor</t>
@@ -2021,13 +1994,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E5%93%B2%E5%AD%A6</t>
   </si>
   <si>
-    <t>宗教哲学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理哲學</t>
+    <t>地理哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_sex</t>
@@ -2045,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_engineering</t>
@@ -2069,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>哲學史</t>
+    <t>哲学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Renaissance_philosophy</t>
@@ -2087,7 +2057,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/19%E4%B8%96%E7%BA%AA%E5%93%B2%E5%AD%A6</t>
@@ -2123,7 +2093,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%99%89%E7%8E%84%E5%AD%B8</t>
   </si>
   <si>
-    <t>魏晉玄學</t>
+    <t>魏晋玄学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%AE%B6</t>
@@ -2171,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%AD%E8%BE%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>詭辯學派</t>
+    <t>诡辩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE%E4%B8%BB%E4%B9%89</t>
@@ -2183,19 +2153,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%8D%E9%81%99%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>逍遙學派</t>
+    <t>逍遥学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AC%E5%84%92%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>犬儒學派</t>
+    <t>犬儒学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E9%B3%A9%E9%AD%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>伊比鳩魯學派</t>
+    <t>伊比鸠鲁学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%9F%8F%E6%8B%89%E5%9B%BE%E4%B8%BB%E4%B9%89</t>
@@ -2207,7 +2177,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%87%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>解釋學</t>
+    <t>解释学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%93%B2%E5%AD%A6</t>
@@ -2255,7 +2225,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E4%BA%BA%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>文藝復興人文主義</t>
+    <t>文艺复兴人文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%E4%B8%BB%E4%B9%89</t>
@@ -2273,7 +2243,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%98%8E%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宋明理學</t>
+    <t>宋明理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E6%9C%B1%E7%90%86%E5%AD%A6</t>
@@ -2291,13 +2261,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8A%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>事功學派</t>
+    <t>事功学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%84%92%E5%AD%B8</t>
   </si>
   <si>
-    <t>韓國儒學</t>
+    <t>韩国儒学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%9C%B1%E5%AD%90%E5%AD%A6</t>
@@ -2411,7 +2381,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%9B%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>效益主義</t>
+    <t>效益主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -2429,13 +2399,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代主義</t>
+    <t>现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>現象學</t>
+    <t>现象学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
@@ -2447,7 +2417,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>日本國學</t>
+    <t>日本国学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%84%92%E5%AE%B6</t>
@@ -2471,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗哲學</t>
+    <t>实验哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Internalism_and_externalism</t>
@@ -2483,9 +2453,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%90%86%E8%9E%8D%E8%B4%AF%E8%AE%BA</t>
   </si>
   <si>
-    <t>真理融贯论</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%BB%E8%BE%91%E5%AE%9E%E8%AF%81%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -2507,13 +2474,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%B8%B8%E8%AA%9E%E8%A8%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>日常語言哲學</t>
+    <t>日常语言哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%82%E9%9D%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>寂靜主義</t>
+    <t>寂静主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%BD%97%E5%B0%94%E6%96%AF</t>
@@ -2537,7 +2504,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%A7%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>德性倫理學</t>
+    <t>德性伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3%E5%AD%A6%E6%B4%BE</t>
@@ -2549,13 +2516,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>批判理論</t>
+    <t>批判理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>解構主義</t>
+    <t>解构主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_philosophy</t>
@@ -2567,7 +2534,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Postmodern_philosophy</t>
@@ -2579,7 +2546,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後結構主義</t>
+    <t>后结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BB%BA%E6%9E%84%E4%B8%BB%E4%B9%89</t>
@@ -2591,13 +2558,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構主義</t>
+    <t>结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>京都學派</t>
+    <t>京都学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Russian_cosmism</t>
@@ -2651,7 +2618,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>信仰主義</t>
+    <t>信仰主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reasonism</t>
@@ -2735,13 +2702,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5%E8%AB%96</t>
   </si>
   <si>
-    <t>概念論</t>
+    <t>概念论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%90%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>唯名論</t>
+    <t>唯名论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ethiopian_philosophy</t>
@@ -2759,7 +2726,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>日本哲學</t>
+    <t>日本哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Korean_philosophy</t>
@@ -2771,7 +2738,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>臺灣哲學</t>
+    <t>台湾哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indonesian_philosophy</t>
@@ -2813,7 +2780,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>德國哲學</t>
+    <t>德国哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italian_philosophy</t>
@@ -2849,13 +2816,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E6%A6%82%E5%BF%B5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>哲學概念列表</t>
+    <t>哲学概念列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2867,7 +2834,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -4964,7 +4931,7 @@
         <v>119</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -4990,10 +4957,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -5019,10 +4986,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -5048,10 +5015,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -5077,10 +5044,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -5106,10 +5073,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -5135,10 +5102,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -5164,10 +5131,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -5193,10 +5160,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>8</v>
@@ -5222,10 +5189,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -5251,10 +5218,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>18</v>
@@ -5280,10 +5247,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -5309,10 +5276,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>12</v>
@@ -5338,10 +5305,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5367,10 +5334,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -5396,10 +5363,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5425,10 +5392,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>3</v>
@@ -5454,10 +5421,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>5</v>
@@ -5483,10 +5450,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5512,10 +5479,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -5541,10 +5508,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -5570,10 +5537,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -5599,10 +5566,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>4</v>
@@ -5628,10 +5595,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5657,10 +5624,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5686,10 +5653,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -5715,10 +5682,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5744,10 +5711,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5773,10 +5740,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>3</v>
@@ -5802,10 +5769,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>10</v>
@@ -5831,10 +5798,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5860,10 +5827,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5889,10 +5856,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5918,10 +5885,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>7</v>
@@ -5947,10 +5914,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -5976,10 +5943,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -6005,10 +5972,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>14</v>
@@ -6034,10 +6001,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -6092,10 +6059,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>6</v>
@@ -6121,10 +6088,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -6150,10 +6117,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>6</v>
@@ -6179,10 +6146,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -6208,10 +6175,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -6237,10 +6204,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -6266,10 +6233,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -6295,10 +6262,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -6324,10 +6291,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6353,10 +6320,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -6382,10 +6349,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -6411,10 +6378,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -6440,10 +6407,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -6469,10 +6436,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -6498,10 +6465,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -6527,10 +6494,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6556,10 +6523,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6585,10 +6552,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6614,10 +6581,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6643,10 +6610,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6672,10 +6639,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6701,10 +6668,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6730,10 +6697,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6759,10 +6726,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6788,10 +6755,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6817,10 +6784,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6846,10 +6813,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6904,10 +6871,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6933,10 +6900,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6962,10 +6929,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -7020,10 +6987,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -7049,10 +7016,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -7078,10 +7045,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -7107,10 +7074,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -7136,10 +7103,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -7165,10 +7132,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -7194,10 +7161,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -7223,10 +7190,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -7252,10 +7219,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -7281,10 +7248,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -7310,10 +7277,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7339,10 +7306,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -7368,10 +7335,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7397,10 +7364,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7426,10 +7393,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7455,10 +7422,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7484,10 +7451,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -7513,10 +7480,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7542,10 +7509,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7571,10 +7538,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7600,10 +7567,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7629,10 +7596,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7658,10 +7625,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7687,10 +7654,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7716,10 +7683,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -7745,10 +7712,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>188</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7774,10 +7741,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7803,10 +7770,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F158" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7832,10 +7799,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -7861,10 +7828,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7890,10 +7857,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>178</v>
+      </c>
+      <c r="F161" t="s">
         <v>179</v>
-      </c>
-      <c r="F161" t="s">
-        <v>180</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7919,10 +7886,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7948,10 +7915,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>161</v>
       </c>
       <c r="G163" t="n">
         <v>5</v>
@@ -7977,10 +7944,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -8006,10 +7973,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>11</v>
@@ -8035,10 +8002,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F166" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -8064,10 +8031,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -8093,10 +8060,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>152</v>
+      </c>
+      <c r="F168" t="s">
         <v>153</v>
-      </c>
-      <c r="F168" t="s">
-        <v>154</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -8122,10 +8089,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -8151,10 +8118,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -8180,10 +8147,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>155</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -8209,10 +8176,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F172" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -8238,10 +8205,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>156</v>
+      </c>
+      <c r="F173" t="s">
         <v>157</v>
-      </c>
-      <c r="F173" t="s">
-        <v>158</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -8267,10 +8234,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>158</v>
+      </c>
+      <c r="F174" t="s">
         <v>159</v>
-      </c>
-      <c r="F174" t="s">
-        <v>160</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -8296,10 +8263,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F175" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -8325,10 +8292,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F176" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8354,10 +8321,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F177" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -8383,10 +8350,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F178" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8412,10 +8379,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F179" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8441,10 +8408,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F180" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8470,10 +8437,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F181" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8499,10 +8466,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8528,10 +8495,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G183" t="n">
         <v>9</v>
@@ -8557,10 +8524,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8586,10 +8553,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -8615,10 +8582,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -8644,10 +8611,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>174</v>
+      </c>
+      <c r="F187" t="s">
         <v>175</v>
-      </c>
-      <c r="F187" t="s">
-        <v>176</v>
       </c>
       <c r="G187" t="n">
         <v>4</v>
@@ -8673,10 +8640,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F188" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8702,10 +8669,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F189" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8731,10 +8698,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F190" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8760,10 +8727,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F191" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G191" t="n">
         <v>5</v>
@@ -8789,10 +8756,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F192" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8818,10 +8785,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F193" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8847,10 +8814,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F194" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8876,10 +8843,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F195" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8905,10 +8872,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F196" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8934,10 +8901,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F197" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8963,10 +8930,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F198" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8992,10 +8959,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F199" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -9021,10 +8988,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F200" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -9050,10 +9017,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F201" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -9079,10 +9046,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F202" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -9108,10 +9075,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F203" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>
@@ -9137,10 +9104,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F204" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -9166,10 +9133,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F205" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -9195,10 +9162,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F206" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -9224,10 +9191,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F207" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -9253,10 +9220,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F208" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -9282,10 +9249,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -9311,10 +9278,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9340,10 +9307,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -9369,10 +9336,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -9398,10 +9365,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9427,10 +9394,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9456,10 +9423,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -9485,10 +9452,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9514,10 +9481,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -9543,10 +9510,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9572,10 +9539,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9601,10 +9568,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9630,10 +9597,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -9659,10 +9626,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9688,10 +9655,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9717,10 +9684,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9746,10 +9713,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9775,10 +9742,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9804,10 +9771,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>202</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -9833,10 +9800,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>177</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -9862,10 +9829,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9891,10 +9858,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9920,10 +9887,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -9949,10 +9916,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9978,10 +9945,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -10007,10 +9974,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -10036,10 +10003,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -10065,10 +10032,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -10094,10 +10061,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -10123,10 +10090,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -10152,10 +10119,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -10181,10 +10148,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -10210,10 +10177,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -10239,10 +10206,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -10268,10 +10235,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -10297,10 +10264,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -10326,10 +10293,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -10355,10 +10322,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -10384,10 +10351,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10413,10 +10380,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10442,10 +10409,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10471,10 +10438,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10500,10 +10467,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -10529,10 +10496,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10558,10 +10525,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>171</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10587,10 +10554,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10616,10 +10583,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10645,10 +10612,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10674,10 +10641,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10703,10 +10670,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10732,10 +10699,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10761,10 +10728,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10790,10 +10757,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10819,10 +10786,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10848,10 +10815,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G263" t="n">
         <v>3</v>
@@ -10877,10 +10844,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10906,10 +10873,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10935,10 +10902,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10964,10 +10931,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10993,10 +10960,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -11022,10 +10989,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -11051,10 +11018,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G270" t="n">
         <v>3</v>
@@ -11080,10 +11047,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G271" t="n">
         <v>3</v>
@@ -11109,10 +11076,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="F272" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -11138,10 +11105,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="F273" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -11167,10 +11134,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="F274" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -11196,10 +11163,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="F275" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -11225,10 +11192,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="F276" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -11254,10 +11221,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -11283,10 +11250,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F278" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -11312,10 +11279,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11341,10 +11308,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11370,10 +11337,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F281" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11399,10 +11366,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="F282" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11428,10 +11395,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F283" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11457,10 +11424,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F284" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11486,10 +11453,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F285" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11515,10 +11482,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F286" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11544,10 +11511,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="F287" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -11573,10 +11540,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="F288" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11602,10 +11569,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="F289" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11631,10 +11598,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F290" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11660,10 +11627,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="F291" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11689,10 +11656,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11718,10 +11685,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11747,10 +11714,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11776,10 +11743,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11805,10 +11772,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="F296" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11834,10 +11801,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="F297" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11863,10 +11830,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="F298" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11892,10 +11859,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="F299" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11921,10 +11888,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F300" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -11950,10 +11917,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="F301" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11979,10 +11946,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F302" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -12008,10 +11975,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="F303" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -12037,10 +12004,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="F304" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -12066,10 +12033,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F305" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -12095,10 +12062,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="F306" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -12124,10 +12091,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="F307" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -12153,10 +12120,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F308" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -12182,10 +12149,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="F309" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -12211,10 +12178,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F310" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -12240,10 +12207,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="F311" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -12269,10 +12236,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="F312" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -12298,10 +12265,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="F313" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -12327,10 +12294,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="F314" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -12356,10 +12323,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="F315" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -12385,10 +12352,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F316" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12414,10 +12381,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F317" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12443,10 +12410,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="F318" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12472,10 +12439,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="F319" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12501,10 +12468,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="F320" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12530,10 +12497,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="F321" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12559,10 +12526,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="F322" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12588,10 +12555,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="F323" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12617,10 +12584,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="F324" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12646,10 +12613,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="F325" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12675,10 +12642,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="F326" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12733,10 +12700,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F328" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12762,10 +12729,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="F329" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12791,10 +12758,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F330" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12820,10 +12787,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="F331" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12849,10 +12816,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="F332" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12878,10 +12845,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="F333" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12936,10 +12903,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F335" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G335" t="n">
         <v>3</v>
@@ -12994,10 +12961,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="F337" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -13023,10 +12990,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="F338" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -13052,10 +13019,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="F339" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -13081,10 +13048,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="F340" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -13110,10 +13077,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="F341" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -13139,10 +13106,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="F342" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -13168,10 +13135,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="F343" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -13197,10 +13164,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F344" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -13226,10 +13193,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="F345" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -13255,10 +13222,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="F346" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -13284,10 +13251,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="F347" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -13313,10 +13280,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="F348" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13342,10 +13309,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="F349" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13371,10 +13338,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="F350" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13400,10 +13367,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="F351" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13429,10 +13396,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F352" t="s">
-        <v>432</v>
+        <v>202</v>
       </c>
       <c r="G352" t="n">
         <v>6</v>
@@ -13458,10 +13425,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="F353" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13487,10 +13454,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="F354" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13516,10 +13483,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="F355" t="s">
-        <v>668</v>
+        <v>200</v>
       </c>
       <c r="G355" t="n">
         <v>3</v>
@@ -13545,10 +13512,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="F356" t="s">
-        <v>434</v>
+        <v>177</v>
       </c>
       <c r="G356" t="n">
         <v>12</v>
@@ -13574,10 +13541,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="F357" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="G357" t="n">
         <v>7</v>
@@ -13603,10 +13570,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="F358" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13632,10 +13599,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F359" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13661,10 +13628,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F360" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G360" t="n">
         <v>2</v>
@@ -13690,10 +13657,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F361" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13719,10 +13686,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="F362" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13748,10 +13715,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F363" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13777,10 +13744,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F364" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13893,10 +13860,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F368" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13922,10 +13889,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="F369" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13951,10 +13918,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="F370" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13980,10 +13947,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F371" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -14009,10 +13976,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F372" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -14038,10 +14005,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F373" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -14067,10 +14034,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F374" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -14125,10 +14092,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F376" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -14154,10 +14121,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F377" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -14183,10 +14150,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F378" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -14212,10 +14179,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F379" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -14270,10 +14237,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F381" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -14299,10 +14266,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F382" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -14328,10 +14295,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F383" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -14357,10 +14324,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F384" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -14386,10 +14353,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F385" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14415,10 +14382,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F386" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14444,10 +14411,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F387" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14473,10 +14440,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F388" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14502,10 +14469,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F389" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14531,10 +14498,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F390" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14560,10 +14527,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F391" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14589,10 +14556,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F392" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14618,10 +14585,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F393" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14647,10 +14614,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F394" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14705,10 +14672,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F396" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14734,10 +14701,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F397" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14763,10 +14730,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F398" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14792,10 +14759,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F399" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14821,10 +14788,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F400" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14850,10 +14817,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F401" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G401" t="n">
         <v>8</v>
@@ -14908,10 +14875,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F403" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14995,10 +14962,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F406" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G406" t="n">
         <v>2</v>
@@ -15024,10 +14991,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F407" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -15053,10 +15020,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F408" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -15082,10 +15049,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F409" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -15140,10 +15107,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F411" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -15169,10 +15136,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F412" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -15198,10 +15165,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F413" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G413" t="n">
         <v>2</v>
@@ -15227,10 +15194,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F414" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G414" t="n">
         <v>2</v>
@@ -15256,10 +15223,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F415" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -15285,10 +15252,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F416" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -15314,10 +15281,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F417" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15343,10 +15310,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F418" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15372,10 +15339,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F419" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15401,10 +15368,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F420" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15430,10 +15397,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F421" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15459,10 +15426,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F422" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15488,10 +15455,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F423" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15517,10 +15484,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F424" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15546,10 +15513,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F425" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15575,10 +15542,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F426" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15604,10 +15571,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F427" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15633,10 +15600,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F428" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15691,10 +15658,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F430" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15720,10 +15687,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F431" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15749,10 +15716,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F432" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15778,10 +15745,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F433" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G433" t="n">
         <v>2</v>
@@ -15807,10 +15774,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F434" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15836,10 +15803,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="F435" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15865,10 +15832,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="F436" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15894,10 +15861,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="F437" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15923,10 +15890,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F438" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15952,10 +15919,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F439" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="G439" t="n">
         <v>2</v>
@@ -15981,10 +15948,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F440" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -16010,10 +15977,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F441" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -16039,10 +16006,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="F442" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -16068,10 +16035,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="F443" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -16097,10 +16064,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="F444" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -16126,10 +16093,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="F445" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -16155,10 +16122,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F446" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -16184,10 +16151,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="F447" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -16213,10 +16180,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="F448" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="G448" t="n">
         <v>2</v>
@@ -16242,10 +16209,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="F449" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -16271,10 +16238,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="F450" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -16300,10 +16267,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F451" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G451" t="n">
         <v>1</v>
@@ -16329,10 +16296,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="F452" t="s">
-        <v>822</v>
+        <v>487</v>
       </c>
       <c r="G452" t="n">
         <v>1</v>
@@ -16358,10 +16325,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="F453" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16387,10 +16354,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="F454" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16416,10 +16383,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="F455" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16445,10 +16412,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="F456" t="s">
-        <v>830</v>
+        <v>819</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16474,10 +16441,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="F457" t="s">
-        <v>832</v>
+        <v>821</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16503,10 +16470,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>833</v>
+        <v>822</v>
       </c>
       <c r="F458" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16532,10 +16499,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="F459" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16561,10 +16528,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
       <c r="F460" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="G460" t="n">
         <v>1</v>
@@ -16590,10 +16557,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F461" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>
@@ -16619,10 +16586,10 @@
         <v>461</v>
       </c>
       <c r="E462" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="F462" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="G462" t="n">
         <v>1</v>
@@ -16648,10 +16615,10 @@
         <v>462</v>
       </c>
       <c r="E463" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F463" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G463" t="n">
         <v>2</v>
@@ -16706,10 +16673,10 @@
         <v>464</v>
       </c>
       <c r="E465" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="F465" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="G465" t="n">
         <v>1</v>
@@ -16735,10 +16702,10 @@
         <v>465</v>
       </c>
       <c r="E466" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="F466" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -16764,10 +16731,10 @@
         <v>466</v>
       </c>
       <c r="E467" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="F467" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="G467" t="n">
         <v>1</v>
@@ -16793,10 +16760,10 @@
         <v>467</v>
       </c>
       <c r="E468" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
       <c r="F468" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="G468" t="n">
         <v>1</v>
@@ -16822,10 +16789,10 @@
         <v>468</v>
       </c>
       <c r="E469" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="F469" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
       <c r="G469" t="n">
         <v>1</v>
@@ -16851,10 +16818,10 @@
         <v>469</v>
       </c>
       <c r="E470" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="F470" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="G470" t="n">
         <v>1</v>
@@ -16880,10 +16847,10 @@
         <v>470</v>
       </c>
       <c r="E471" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="F471" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="G471" t="n">
         <v>1</v>
@@ -16909,10 +16876,10 @@
         <v>471</v>
       </c>
       <c r="E472" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="F472" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="G472" t="n">
         <v>2</v>
@@ -16938,10 +16905,10 @@
         <v>472</v>
       </c>
       <c r="E473" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="F473" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="G473" t="n">
         <v>1</v>
@@ -16967,10 +16934,10 @@
         <v>473</v>
       </c>
       <c r="E474" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="F474" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="G474" t="n">
         <v>1</v>
@@ -16996,10 +16963,10 @@
         <v>474</v>
       </c>
       <c r="E475" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="F475" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="G475" t="n">
         <v>1</v>
@@ -17025,10 +16992,10 @@
         <v>475</v>
       </c>
       <c r="E476" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="F476" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="G476" t="n">
         <v>1</v>
@@ -17054,10 +17021,10 @@
         <v>476</v>
       </c>
       <c r="E477" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="F477" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="G477" t="n">
         <v>1</v>
@@ -17083,10 +17050,10 @@
         <v>477</v>
       </c>
       <c r="E478" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F478" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="G478" t="n">
         <v>1</v>
@@ -17112,10 +17079,10 @@
         <v>478</v>
       </c>
       <c r="E479" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="F479" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="G479" t="n">
         <v>1</v>
@@ -17141,10 +17108,10 @@
         <v>479</v>
       </c>
       <c r="E480" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F480" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G480" t="n">
         <v>1</v>
@@ -17170,10 +17137,10 @@
         <v>480</v>
       </c>
       <c r="E481" t="s">
+        <v>130</v>
+      </c>
+      <c r="F481" t="s">
         <v>131</v>
-      </c>
-      <c r="F481" t="s">
-        <v>132</v>
       </c>
       <c r="G481" t="n">
         <v>1</v>
@@ -17199,10 +17166,10 @@
         <v>481</v>
       </c>
       <c r="E482" t="s">
-        <v>871</v>
+        <v>860</v>
       </c>
       <c r="F482" t="s">
-        <v>872</v>
+        <v>861</v>
       </c>
       <c r="G482" t="n">
         <v>1</v>
@@ -17228,10 +17195,10 @@
         <v>482</v>
       </c>
       <c r="E483" t="s">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F483" t="s">
-        <v>874</v>
+        <v>863</v>
       </c>
       <c r="G483" t="n">
         <v>1</v>
@@ -17257,10 +17224,10 @@
         <v>483</v>
       </c>
       <c r="E484" t="s">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="F484" t="s">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="G484" t="n">
         <v>1</v>
@@ -17286,10 +17253,10 @@
         <v>484</v>
       </c>
       <c r="E485" t="s">
-        <v>877</v>
+        <v>866</v>
       </c>
       <c r="F485" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
       <c r="G485" t="n">
         <v>1</v>
@@ -17315,10 +17282,10 @@
         <v>485</v>
       </c>
       <c r="E486" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="F486" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="G486" t="n">
         <v>2</v>
@@ -17344,10 +17311,10 @@
         <v>486</v>
       </c>
       <c r="E487" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
       <c r="F487" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="G487" t="n">
         <v>1</v>
@@ -17373,10 +17340,10 @@
         <v>487</v>
       </c>
       <c r="E488" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="F488" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
       <c r="G488" t="n">
         <v>1</v>
@@ -17402,10 +17369,10 @@
         <v>488</v>
       </c>
       <c r="E489" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="F489" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="G489" t="n">
         <v>1</v>
@@ -17431,10 +17398,10 @@
         <v>489</v>
       </c>
       <c r="E490" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="F490" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="G490" t="n">
         <v>1</v>
@@ -17460,10 +17427,10 @@
         <v>490</v>
       </c>
       <c r="E491" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="F491" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="G491" t="n">
         <v>1</v>
@@ -17489,10 +17456,10 @@
         <v>491</v>
       </c>
       <c r="E492" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F492" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G492" t="n">
         <v>1</v>
@@ -17518,10 +17485,10 @@
         <v>492</v>
       </c>
       <c r="E493" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="F493" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="G493" t="n">
         <v>1</v>
@@ -17547,10 +17514,10 @@
         <v>493</v>
       </c>
       <c r="E494" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="F494" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="G494" t="n">
         <v>1</v>
@@ -17576,10 +17543,10 @@
         <v>494</v>
       </c>
       <c r="E495" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="F495" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="G495" t="n">
         <v>1</v>
@@ -17605,10 +17572,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="F496" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -17634,10 +17601,10 @@
         <v>496</v>
       </c>
       <c r="E497" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="F497" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="G497" t="n">
         <v>1</v>
@@ -17663,10 +17630,10 @@
         <v>497</v>
       </c>
       <c r="E498" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="F498" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="G498" t="n">
         <v>1</v>
@@ -17692,10 +17659,10 @@
         <v>498</v>
       </c>
       <c r="E499" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="F499" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="G499" t="n">
         <v>1</v>
@@ -17721,10 +17688,10 @@
         <v>499</v>
       </c>
       <c r="E500" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F500" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
@@ -17750,10 +17717,10 @@
         <v>500</v>
       </c>
       <c r="E501" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="F501" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="G501" t="n">
         <v>1</v>
@@ -17779,10 +17746,10 @@
         <v>501</v>
       </c>
       <c r="E502" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="F502" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="G502" t="n">
         <v>1</v>
@@ -17808,10 +17775,10 @@
         <v>502</v>
       </c>
       <c r="E503" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="F503" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -17837,10 +17804,10 @@
         <v>503</v>
       </c>
       <c r="E504" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="F504" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="G504" t="n">
         <v>1</v>
@@ -17866,10 +17833,10 @@
         <v>504</v>
       </c>
       <c r="E505" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="F505" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="G505" t="n">
         <v>4</v>
@@ -17895,10 +17862,10 @@
         <v>505</v>
       </c>
       <c r="E506" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="F506" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="G506" t="n">
         <v>1</v>
@@ -17924,10 +17891,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="F507" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="G507" t="n">
         <v>1</v>
@@ -17953,10 +17920,10 @@
         <v>507</v>
       </c>
       <c r="E508" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="F508" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="G508" t="n">
         <v>1</v>
@@ -17982,10 +17949,10 @@
         <v>508</v>
       </c>
       <c r="E509" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="F509" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="G509" t="n">
         <v>1</v>
@@ -18011,10 +17978,10 @@
         <v>509</v>
       </c>
       <c r="E510" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="F510" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="G510" t="n">
         <v>1</v>
@@ -18040,10 +18007,10 @@
         <v>510</v>
       </c>
       <c r="E511" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="F511" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="G511" t="n">
         <v>1</v>
@@ -18069,10 +18036,10 @@
         <v>511</v>
       </c>
       <c r="E512" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="F512" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="G512" t="n">
         <v>1</v>
@@ -18098,10 +18065,10 @@
         <v>512</v>
       </c>
       <c r="E513" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="F513" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="G513" t="n">
         <v>1</v>
@@ -18127,10 +18094,10 @@
         <v>513</v>
       </c>
       <c r="E514" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="F514" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="G514" t="n">
         <v>1</v>
@@ -18156,10 +18123,10 @@
         <v>514</v>
       </c>
       <c r="E515" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F515" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G515" t="n">
         <v>2</v>
@@ -18185,10 +18152,10 @@
         <v>515</v>
       </c>
       <c r="E516" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="F516" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -18214,10 +18181,10 @@
         <v>516</v>
       </c>
       <c r="E517" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
       <c r="F517" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="G517" t="n">
         <v>1</v>
@@ -18243,10 +18210,10 @@
         <v>517</v>
       </c>
       <c r="E518" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="F518" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="G518" t="n">
         <v>1</v>
@@ -18272,10 +18239,10 @@
         <v>518</v>
       </c>
       <c r="E519" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="F519" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="G519" t="n">
         <v>1</v>
@@ -18301,10 +18268,10 @@
         <v>519</v>
       </c>
       <c r="E520" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="F520" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="G520" t="n">
         <v>1</v>
@@ -18359,10 +18326,10 @@
         <v>521</v>
       </c>
       <c r="E522" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="F522" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="G522" t="n">
         <v>1</v>
@@ -18417,10 +18384,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="F524" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="G524" t="n">
         <v>3</v>
@@ -18446,10 +18413,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="F525" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -18475,10 +18442,10 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="F526" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -18504,10 +18471,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="F527" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="G527" t="n">
         <v>1</v>
@@ -18533,10 +18500,10 @@
         <v>527</v>
       </c>
       <c r="E528" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="F528" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="G528" t="n">
         <v>5</v>
@@ -18562,10 +18529,10 @@
         <v>528</v>
       </c>
       <c r="E529" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="F529" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="G529" t="n">
         <v>1</v>
